--- a/jst_rebuild/file/记账科目数据.xlsx
+++ b/jst_rebuild/file/记账科目数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>酒店号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,15 +36,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2020-08-20 00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>5353</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-07-20 00:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2538</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -399,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -429,29 +425,15 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
